--- a/postman.xlsx
+++ b/postman.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lendi\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lendi\PycharmProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B141AE-0E6F-44DF-A84C-1A81651A6BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7922EA0-B1A9-4477-92BA-2463B484E762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="114">
   <si>
     <t>http://144.24.112.239/api</t>
   </si>
@@ -1802,6 +1802,23 @@
   </si>
   <si>
     <t>https://lendittfinserve.com/admin-prod/admin/transaction/getTransactionDetails?loanId=808606</t>
+  </si>
+  <si>
+    <t>warrant</t>
+  </si>
+  <si>
+    <r>
+      <t>{{baseUrl}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF212121"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>/admin/legal/getAllLegalData?page=1&amp;startDate=2024-02-01T10:00:00.000Z&amp;endDate=2024-03-15T10:00:00.000Z&amp;type=7&amp;adminId=70&amp;download=true</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2210,8 +2227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="I111" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2605,6 +2622,14 @@
         <v>78</v>
       </c>
     </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>80</v>
